--- a/performing.xlsx
+++ b/performing.xlsx
@@ -16,10 +16,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -434,6 +430,11 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/performing.xlsx
+++ b/performing.xlsx
@@ -16,6 +16,10 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -430,11 +434,6 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/performing.xlsx
+++ b/performing.xlsx
@@ -16,10 +16,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,6 +430,51 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
